--- a/src/main/java/resources/TestData.xlsx
+++ b/src/main/java/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhij\OneDrive\Documents\Eclipse_Workspace\7rmartSuperMarket\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDFF797-E7F7-4CF7-8F81-FE4AE15E3D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03172135-3A30-470C-A515-C987E4A720EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{737E5079-8F3D-4668-8C5D-E480B5B7F7E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{737E5079-8F3D-4668-8C5D-E480B5B7F7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -128,15 +128,9 @@
     <t>UserName</t>
   </si>
   <si>
-    <t>Akshaya</t>
-  </si>
-  <si>
     <t>Ushass</t>
   </si>
   <si>
-    <t>akshaya</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -147,6 +141,12 @@
   </si>
   <si>
     <t>SevenRMart Project</t>
+  </si>
+  <si>
+    <t>Ambili</t>
+  </si>
+  <si>
+    <t>ambili</t>
   </si>
 </sst>
 </file>
@@ -762,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EEA211-8823-436F-BF3A-226128F57D9C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -777,7 +777,7 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -801,7 +801,7 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -809,7 +809,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -832,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1693AFD-AADD-42B1-BCD4-D287F8FCB0D0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -844,18 +844,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/resources/TestData.xlsx
+++ b/src/main/java/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhij\OneDrive\Documents\Eclipse_Workspace\7rmartSuperMarket\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03172135-3A30-470C-A515-C987E4A720EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64E486E-C748-492C-BF8B-1FBCCE3AACF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{737E5079-8F3D-4668-8C5D-E480B5B7F7E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{737E5079-8F3D-4668-8C5D-E480B5B7F7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>admin</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>ambili</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74258D3E-8D2B-4FDB-8E9B-2AC94839D81E}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,6 +543,11 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -762,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EEA211-8823-436F-BF3A-226128F57D9C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
